--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875DD325-4950-4823-9A10-D9FAB5B14064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD0529-55D1-4BB7-900D-3751CFB81BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" firstSheet="4" activeTab="6" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
@@ -2489,6 +2489,18 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2.4813000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4599000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4563999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4409999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26307,7 +26319,7 @@
   <dimension ref="A2:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26902,32 +26914,54 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2.4599000000000002</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2.4563999999999999</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2.4510000000000001</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="3"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.14940000000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD0529-55D1-4BB7-900D-3751CFB81BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7E0CD-4458-4441-8B70-12C4387C6B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" firstSheet="4" activeTab="6" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
@@ -2363,10 +2363,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>XLMR_ML!$C$3:$C$82</c:f>
+              <c:f>XLMR_ML!$C$3:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>7.4599000000000002</c:v>
                 </c:pt>
@@ -26316,10 +26316,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCCAA2A-009C-4C5D-A2B1-28765BD19D0C}">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26964,267 +26964,22 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B48" s="17">
         <v>3</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D48" s="14">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E48" s="14">
         <v>0.15129999999999999</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F48" s="14">
         <v>0.1108</v>
       </c>
     </row>

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7E0CD-4458-4441-8B70-12C4387C6B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E01D8-4282-4E31-A453-05F29A8D4E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" firstSheet="4" activeTab="6" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="6" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BERT_EN" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="XLMR_EN" sheetId="15" r:id="rId5"/>
     <sheet name="XLMR_DE" sheetId="9" r:id="rId6"/>
     <sheet name="XLMR_ML" sheetId="16" r:id="rId7"/>
-    <sheet name="BART_EN" sheetId="17" r:id="rId8"/>
-    <sheet name="BART_DE" sheetId="13" r:id="rId9"/>
-    <sheet name="BART_ML" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>Language</t>
   </si>
@@ -99,9 +96,6 @@
     <t>XLM-ROBERTA-BASE</t>
   </si>
   <si>
-    <t xml:space="preserve">WIKI/ NEWS/ MLSUM </t>
-  </si>
-  <si>
     <t>WIKI/ NEWS/ MLSUM</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
   </si>
   <si>
     <t>Multilingual</t>
-  </si>
-  <si>
-    <t>FACEBOOK/MBART-LARGE-CC25</t>
   </si>
 </sst>
 </file>
@@ -3238,1856 +3229,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_EN!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>BART_EN!$C$3:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="37"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F063-46F4-BA42-34CFEEC8DEFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="530566160"/>
-        <c:axId val="530567800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="530566160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530567800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530567800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530566160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" b="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Scores</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_EN!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_EN!$D$7,BART_EN!$D$12,BART_EN!$D$17,BART_EN!$D$22,BART_EN!$D$27,BART_EN!$D$32,BART_EN!$D$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-89F2-4C4F-B839-E949434F9F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_EN!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="325D72"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_EN!$E$7,BART_EN!$E$12,BART_EN!$E$17,BART_EN!$E$22,BART_EN!$E$27,BART_EN!$E$32,BART_EN!$E$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-89F2-4C4F-B839-E949434F9F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_EN!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A74343"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-89F2-4C4F-B839-E949434F9F8A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_EN!$F$7,BART_EN!$F$12,BART_EN!$F$17,BART_EN!$F$22,BART_EN!$F$27,BART_EN!$F$32,BART_EN!$F$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-89F2-4C4F-B839-E949434F9F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="533795144"/>
-        <c:axId val="533794816"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="533795144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533794816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="533794816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533795144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_DE!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>BART_DE!$C$3:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="37"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D61E-4063-875E-8B9BB28639A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="530566160"/>
-        <c:axId val="530567800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="530566160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530567800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530567800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530566160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" b="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Scores</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_DE!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_DE!$D$7,BART_DE!$D$12,BART_DE!$D$17,BART_DE!$D$22,BART_DE!$D$27,BART_DE!$D$32,BART_DE!$D$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8586-4D04-B5A5-6EB81689935F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_DE!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="325D72"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_DE!$E$7,BART_DE!$E$12,BART_DE!$E$17,BART_DE!$E$22,BART_DE!$E$27,BART_DE!$E$32,BART_DE!$E$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8586-4D04-B5A5-6EB81689935F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_DE!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A74343"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-8586-4D04-B5A5-6EB81689935F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_DE!$F$7,BART_DE!$F$12,BART_DE!$F$17,BART_DE!$F$22,BART_DE!$F$27,BART_DE!$F$32,BART_DE!$F$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-8586-4D04-B5A5-6EB81689935F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="533795144"/>
-        <c:axId val="533794816"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="533795144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533794816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="533794816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533795144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_ML!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>BART_ML!$C$3:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="37"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91CA-40BB-92BD-7E89B3751916}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="530566160"/>
-        <c:axId val="530567800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="530566160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530567800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530567800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530566160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5545,538 +3686,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533794816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="533794816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533795144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" b="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Scores</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_ML!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="21835E"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_ML!$D$7,BART_ML!$D$12,BART_ML!$D$17,BART_ML!$D$22,BART_ML!$D$27,BART_ML!$D$32,BART_ML!$D$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8439-4F1A-841E-C4C4AB9FA806}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_ML!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="325D72"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_ML!$E$7,BART_ML!$E$12,BART_ML!$E$17,BART_ML!$E$22,BART_ML!$E$27,BART_ML!$E$32,BART_ML!$E$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8439-4F1A-841E-C4C4AB9FA806}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BART_ML!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R-Measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A74343"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-8439-4F1A-841E-C4C4AB9FA806}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(BART_ML!$F$7,BART_ML!$F$12,BART_ML!$F$17,BART_ML!$F$22,BART_ML!$F$27,BART_ML!$F$32,BART_ML!$F$37)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-8439-4F1A-841E-C4C4AB9FA806}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="533795144"/>
-        <c:axId val="533794816"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="533795144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9703,247 +7312,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13320,3064 +10689,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20510,87 +14822,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7721C281-A17F-4BE7-816C-6D04A7FC8D63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6E1302-5434-4AA2-9D01-D72BE7E1BA43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC2A851-83B6-47BE-98F9-5624BEC8E55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21099,168 +15330,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F36A6F-A2AD-45F8-9995-74B461C65B11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72D7DE6-C2F4-416E-9787-C06107C2F452}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F61729F-C86D-4F28-94C1-769D2D128919}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0668E4-45E0-489B-BA10-8AFBD5586F63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -21684,7 +15753,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -21708,7 +15777,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -22149,395 +16218,6 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E82027D-CA8A-4505-9496-4FD1E50586B4}">
-  <dimension ref="A2:I40"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="17">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22653,7 +16333,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -22677,7 +16357,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -23397,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -23451,7 +17131,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -23475,7 +17155,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -24371,7 +18051,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -24395,7 +18075,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -25163,7 +18843,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -25181,7 +18861,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -25642,7 +19322,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -25660,7 +19340,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -26318,7 +19998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCCAA2A-009C-4C5D-A2B1-28765BD19D0C}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -26364,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -26418,7 +20098,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -26442,7 +20122,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -26981,784 +20661,6 @@
       </c>
       <c r="F48" s="14">
         <v>0.1108</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6D68FA-9FFD-44CD-8F10-2B14A9B48A6F}">
-  <dimension ref="A2:I40"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="17">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7CE7F7-9749-41D5-B3FB-E4700BF17F5A}">
-  <dimension ref="A2:I40"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="17">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E01D8-4282-4E31-A453-05F29A8D4E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5730B94-C5FB-4EE1-909A-4F13246C4C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="6" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="4" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BERT_EN" sheetId="1" r:id="rId1"/>
@@ -18743,7 +18743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D7B0E-2744-461D-949E-D223AB56EB6D}">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19998,8 +19998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCCAA2A-009C-4C5D-A2B1-28765BD19D0C}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20654,13 +20654,13 @@
         <v>14</v>
       </c>
       <c r="D48" s="14">
-        <v>9.5500000000000002E-2</v>
+        <v>0.1545</v>
       </c>
       <c r="E48" s="14">
-        <v>0.15129999999999999</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="F48" s="14">
-        <v>0.1108</v>
+        <v>0.1535</v>
       </c>
     </row>
   </sheetData>

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5730B94-C5FB-4EE1-909A-4F13246C4C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A3716-1C65-4E5B-A554-BD3FB1583B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="4" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
@@ -791,7 +791,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -805,14 +805,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="5"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -826,26 +821,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_EN!$D$12,XLMR_EN!$D$22,XLMR_EN!$D$32)</c:f>
+              <c:f>(XLMR_EN!$D$7,XLMR_EN!$D$12,XLMR_EN!$D$17,XLMR_EN!$D$22,XLMR_EN!$D$27,XLMR_EN!$D$32,XLMR_EN!$D$37)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.01E-2</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3599999999999999E-2</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4100000000000003E-2</c:v>
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +886,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -898,14 +900,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="5"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -919,26 +916,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_EN!$E$12,XLMR_EN!$E$22,XLMR_EN!$E$32)</c:f>
+              <c:f>(XLMR_EN!$E$7,XLMR_EN!$E$12,XLMR_EN!$E$17,XLMR_EN!$E$22,XLMR_EN!$E$27,XLMR_EN!$E$32,XLMR_EN!$E$37)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2699999999999999E-2</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3700000000000006E-2</c:v>
+                  <c:v>9.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12470000000000001</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12809999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +950,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-9BAA-45FA-8F2F-8E21EBD3A7DD}"/>
+              <c16:uniqueId val="{0000000D-037A-4F93-8163-75E91CB078BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -977,7 +981,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -991,14 +995,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="5"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -1012,26 +1011,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6C42-473F-9C53-DC18C2AA9FF1}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_EN!$F$12,XLMR_EN!$F$22,XLMR_EN!$F$32)</c:f>
+              <c:f>(XLMR_EN!$F$7,XLMR_EN!$F$12,XLMR_EN!$F$17,XLMR_EN!$F$22,XLMR_EN!$F$27,XLMR_EN!$F$32,XLMR_EN!$F$37)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0800000000000001E-2</c:v>
+                  <c:v>8.2000000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0199999999999994E-2</c:v>
+                  <c:v>1.04E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1045</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1045,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-9BAA-45FA-8F2F-8E21EBD3A7DD}"/>
+              <c16:uniqueId val="{0000000E-037A-4F93-8163-75E91CB078BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6798,99 +6804,156 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>XLMR_EN!$C$3:$C$32</c:f>
+              <c:f>XLMR_EN!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>7.2043999999999997</c:v>
+                  <c:v>7.2312000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7281000000000004</c:v>
+                  <c:v>6.7428999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6013999999999999</c:v>
+                  <c:v>6.6031000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5136000000000003</c:v>
+                  <c:v>6.5237999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4484000000000004</c:v>
+                  <c:v>6.4612999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3666999999999998</c:v>
+                  <c:v>6.4154999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1420000000000003</c:v>
+                  <c:v>6.3757999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0591999999999997</c:v>
+                  <c:v>6.2483000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9679000000000002</c:v>
+                  <c:v>5.9772999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9344999999999999</c:v>
+                  <c:v>5.9175000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7065000000000001</c:v>
+                  <c:v>5.8716999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3951000000000002</c:v>
+                  <c:v>5.8478000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1993</c:v>
+                  <c:v>5.8297999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0330000000000004</c:v>
+                  <c:v>5.7961</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8780999999999999</c:v>
+                  <c:v>5.7845000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7300000000000004</c:v>
+                  <c:v>5.7656000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5864000000000003</c:v>
+                  <c:v>5.7506000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4721000000000002</c:v>
+                  <c:v>5.7350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3590999999999998</c:v>
+                  <c:v>5.6604999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2767999999999997</c:v>
+                  <c:v>5.6577999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1623000000000001</c:v>
+                  <c:v>5.6452999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0658000000000003</c:v>
+                  <c:v>5.6382000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0030999999999999</c:v>
+                  <c:v>5.6230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9096000000000002</c:v>
+                  <c:v>5.6094999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8479999999999999</c:v>
+                  <c:v>5.6041999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7913000000000001</c:v>
+                  <c:v>5.5994999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7522000000000002</c:v>
+                  <c:v>5.5369000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7301000000000002</c:v>
+                  <c:v>5.2000999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7054</c:v>
+                  <c:v>4.9626999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6688999999999998</c:v>
+                  <c:v>4.7779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6128999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.1478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8281999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5768</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4051</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2612999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1520999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0868000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9569000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.911</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.8256000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8048000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7722000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7322000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7122999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18741,10 +18804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D7B0E-2744-461D-949E-D223AB56EB6D}">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18777,10 +18840,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C3" s="7">
-        <v>7.2043999999999997</v>
+        <v>7.2312000000000003</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
@@ -18794,10 +18857,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="C4" s="8">
-        <v>6.7281000000000004</v>
+        <v>6.7428999999999997</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
@@ -18812,10 +18875,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="C5" s="8">
-        <v>6.6013999999999999</v>
+        <v>6.6031000000000004</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="3"/>
@@ -18830,10 +18893,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C6" s="8">
-        <v>6.5136000000000003</v>
+        <v>6.5237999999999996</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="3"/>
@@ -18848,14 +18911,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C7" s="8">
-        <v>6.4484000000000004</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
+        <v>6.4612999999999996</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8.2000000000000007E-3</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="11" t="s">
         <v>13</v>
@@ -18866,10 +18935,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="C8" s="8">
-        <v>6.3666999999999998</v>
+        <v>6.4154999999999998</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="3"/>
@@ -18878,10 +18947,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <v>0.69</v>
+        <v>0.39</v>
       </c>
       <c r="C9" s="8">
-        <v>6.1420000000000003</v>
+        <v>6.3757999999999999</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
@@ -18890,10 +18959,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="C10" s="8">
-        <v>6.0591999999999997</v>
+        <v>6.2483000000000004</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
@@ -18903,10 +18972,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="8">
-        <v>5.9679000000000002</v>
+        <v>5.9772999999999996</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="3"/>
@@ -18915,28 +18984,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C12" s="8">
-        <v>5.9344999999999999</v>
+        <v>5.9175000000000004</v>
       </c>
       <c r="D12" s="8">
-        <v>1.01E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>1.2699999999999999E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F12" s="10">
-        <v>1.0800000000000001E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
-        <v>1.0900000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="C13" s="8">
-        <v>5.7065000000000001</v>
+        <v>5.8716999999999997</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
@@ -18945,10 +19014,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
-        <v>1.19</v>
+        <v>0.67</v>
       </c>
       <c r="C14" s="8">
-        <v>5.3951000000000002</v>
+        <v>5.8478000000000003</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
@@ -18957,10 +19026,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
-        <v>1.29</v>
+        <v>0.72</v>
       </c>
       <c r="C15" s="8">
-        <v>5.1993</v>
+        <v>5.8297999999999996</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
@@ -18969,10 +19038,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
-        <v>1.38</v>
+        <v>0.78</v>
       </c>
       <c r="C16" s="8">
-        <v>5.0330000000000004</v>
+        <v>5.7961</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3"/>
@@ -18981,22 +19050,28 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>1.48</v>
+        <v>0.84</v>
       </c>
       <c r="C17" s="8">
-        <v>4.8780999999999999</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
+        <v>5.7845000000000004</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.4500000000000001E-2</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
-        <v>1.58</v>
+        <v>0.89</v>
       </c>
       <c r="C18" s="8">
-        <v>4.7300000000000004</v>
+        <v>5.7656000000000001</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="3"/>
@@ -19005,10 +19080,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="C19" s="8">
-        <v>4.5864000000000003</v>
+        <v>5.7506000000000004</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="3"/>
@@ -19017,10 +19092,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8">
-        <v>4.4721000000000002</v>
+        <v>5.7350000000000003</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="3"/>
@@ -19029,10 +19104,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
-        <v>1.88</v>
+        <v>1.06</v>
       </c>
       <c r="C21" s="8">
-        <v>4.3590999999999998</v>
+        <v>5.6604999999999999</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="3"/>
@@ -19041,28 +19116,28 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
-        <v>1.98</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C22" s="8">
-        <v>4.2767999999999997</v>
+        <v>5.6577999999999999</v>
       </c>
       <c r="D22" s="8">
-        <v>7.3599999999999999E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>9.3700000000000006E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="F22" s="10">
-        <v>8.0199999999999994E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
-        <v>2.08</v>
+        <v>1.17</v>
       </c>
       <c r="C23" s="8">
-        <v>4.1623000000000001</v>
+        <v>5.6452999999999998</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="3"/>
@@ -19071,10 +19146,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
-        <v>2.17</v>
+        <v>1.23</v>
       </c>
       <c r="C24" s="8">
-        <v>4.0658000000000003</v>
+        <v>5.6382000000000003</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="3"/>
@@ -19083,10 +19158,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
-        <v>2.27</v>
+        <v>1.28</v>
       </c>
       <c r="C25" s="8">
-        <v>4.0030999999999999</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3"/>
@@ -19095,10 +19170,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="C26" s="8">
-        <v>3.9096000000000002</v>
+        <v>5.6094999999999997</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -19107,22 +19182,28 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
-        <v>2.4700000000000002</v>
+        <v>1.39</v>
       </c>
       <c r="C27" s="8">
-        <v>3.8479999999999999</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
+        <v>5.6041999999999996</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1.9900000000000001E-2</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
-        <v>2.57</v>
+        <v>1.45</v>
       </c>
       <c r="C28" s="8">
-        <v>3.7913000000000001</v>
+        <v>5.5994999999999999</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
@@ -19131,10 +19212,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="C29" s="8">
-        <v>3.7522000000000002</v>
+        <v>5.5369000000000002</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
@@ -19143,10 +19224,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
-        <v>2.77</v>
+        <v>1.56</v>
       </c>
       <c r="C30" s="8">
-        <v>3.7301000000000002</v>
+        <v>5.2000999999999999</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
@@ -19155,10 +19236,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
-        <v>2.87</v>
+        <v>1.62</v>
       </c>
       <c r="C31" s="8">
-        <v>3.7054</v>
+        <v>4.9626999999999999</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="3"/>
@@ -19168,45 +19249,297 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="6">
-        <v>2.97</v>
+        <v>1.67</v>
       </c>
       <c r="C32" s="8">
-        <v>3.6688999999999998</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="D32" s="8">
-        <v>9.4100000000000003E-2</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>0.12470000000000001</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="F32" s="10">
-        <v>0.1045</v>
+        <v>5.45E-2</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4.6128999999999998</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4.4058999999999999</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4.1478999999999999</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3.8281999999999998</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3.5768</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.1457</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3.4051</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3.2612999999999999</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3.1520999999999999</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>2.17</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3.0868000000000002</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="6">
+        <v>2.23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.1767</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.1638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2.9569000000000001</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2.911</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2.8662000000000001</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2.8256000000000001</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2.8048000000000002</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2.7722000000000002</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2.7322000000000002</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>2.73</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2.7122999999999999</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2.702</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.16969999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B53" s="17">
         <v>3</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="14">
-        <v>8.8800000000000004E-2</v>
-      </c>
-      <c r="E33" s="14">
-        <v>0.1176</v>
-      </c>
-      <c r="F33" s="14">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="1"/>
+      <c r="D53" s="14">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.16250000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A3716-1C65-4E5B-A554-BD3FB1583B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C66571-8778-4BD4-8DBE-D7F9791C2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="4" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="5" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BERT_EN" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="22">
   <si>
     <t>Language</t>
   </si>
@@ -1334,172 +1334,91 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>7.5202</c:v>
+                  <c:v>7.4960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9242999999999997</c:v>
+                  <c:v>6.9497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6300999999999997</c:v>
+                  <c:v>6.8319000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8022999999999998</c:v>
+                  <c:v>6.6040999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3838999999999997</c:v>
+                  <c:v>6.5033000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9266000000000001</c:v>
+                  <c:v>6.4447999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6959</c:v>
+                  <c:v>6.3974000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4697</c:v>
+                  <c:v>6.3483000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2985000000000002</c:v>
+                  <c:v>6.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1602999999999999</c:v>
+                  <c:v>6.2938000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0687000000000002</c:v>
+                  <c:v>6.2617000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9903</c:v>
+                  <c:v>6.2569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9287000000000001</c:v>
+                  <c:v>6.2206000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8708</c:v>
+                  <c:v>6.2111999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8323</c:v>
+                  <c:v>6.1917999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7966000000000002</c:v>
+                  <c:v>6.1458000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7627000000000002</c:v>
+                  <c:v>6.1070000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7221000000000002</c:v>
+                  <c:v>5.9507000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6871999999999998</c:v>
+                  <c:v>5.8789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6004</c:v>
+                  <c:v>5.8007999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5912000000000002</c:v>
+                  <c:v>5.7188999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5857000000000001</c:v>
+                  <c:v>5.4748000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5714000000000001</c:v>
+                  <c:v>5.2538999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5421999999999998</c:v>
+                  <c:v>5.1193</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5308000000000002</c:v>
+                  <c:v>5.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5230000000000001</c:v>
+                  <c:v>4.9242999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5063</c:v>
+                  <c:v>4.8148999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5017</c:v>
+                  <c:v>4.7233000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4834999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4828999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4693999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.4597000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4338000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.4388000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.4236</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.4068999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.4156</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.3431000000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.2862</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.2843</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.2866</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.2732999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.2894000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.2637999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2669000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.2595999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2530999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.2643</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.2545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.2416999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.2256999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.2317999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.234</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.2290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.2252999999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.2136999999999998</c:v>
+                  <c:v>4.6189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,7 +1705,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -1802,42 +1721,16 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-DD14-4166-90D8-66C2F2EAF7C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="3"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1853,24 +1746,21 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$D$12,XLMR_DE!$D$22,XLMR_DE!$D$32,XLMR_DE!$D$42,XLMR_DE!$D$52)</c:f>
+              <c:f>(XLMR_DE!$D$7,XLMR_DE!$D$12,XLMR_DE!$D$17,XLMR_DE!$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.1400000000000005E-2</c:v>
+                  <c:v>4.1000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7600000000000006E-2</c:v>
+                  <c:v>7.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9500000000000005E-2</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1099</c:v>
+                  <c:v>1.23E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,7 +1799,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -1923,53 +1813,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$E$12,XLMR_DE!$E$22,XLMR_DE!$E$32,XLMR_DE!$E$42,XLMR_DE!$E$52)</c:f>
+              <c:f>(XLMR_DE!$E$7,XLMR_DE!$E$12,XLMR_DE!$E$17,XLMR_DE!$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1192</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15570000000000001</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15820000000000001</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1694</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17150000000000001</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1838,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B9B8-4352-B83D-6F7A5C87D675}"/>
+              <c16:uniqueId val="{0000000F-EA91-41EC-92B0-2A402871FFEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2008,7 +1869,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -2022,53 +1883,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-DD14-4166-90D8-66C2F2EAF7C8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$F$12,XLMR_DE!$F$22,XLMR_DE!$F$32,XLMR_DE!$F$42,XLMR_DE!$F$52)</c:f>
+              <c:f>(XLMR_DE!$F$7,XLMR_DE!$F$12,XLMR_DE!$F$17,XLMR_DE!$F$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.43E-2</c:v>
+                  <c:v>4.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1135</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11550000000000001</c:v>
+                  <c:v>8.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12670000000000001</c:v>
+                  <c:v>1.2699999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,7 +1908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B9B8-4352-B83D-6F7A5C87D675}"/>
+              <c16:uniqueId val="{00000010-EA91-41EC-92B0-2A402871FFEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18806,8 +18638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D7B0E-2744-461D-949E-D223AB56EB6D}">
   <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19555,8 +19387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD42CEBC-4DF1-4EAE-9662-1F6C023E63EA}">
   <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19592,7 +19424,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="7">
-        <v>7.5202</v>
+        <v>7.4960000000000004</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
@@ -19609,7 +19441,7 @@
         <v>0.11</v>
       </c>
       <c r="C4" s="8">
-        <v>6.9242999999999997</v>
+        <v>6.9497</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
@@ -19627,7 +19459,7 @@
         <v>0.16</v>
       </c>
       <c r="C5" s="8">
-        <v>6.6300999999999997</v>
+        <v>6.8319000000000001</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="3"/>
@@ -19645,7 +19477,7 @@
         <v>0.21</v>
       </c>
       <c r="C6" s="8">
-        <v>5.8022999999999998</v>
+        <v>6.6040999999999999</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="3"/>
@@ -19663,11 +19495,17 @@
         <v>0.27</v>
       </c>
       <c r="C7" s="8">
-        <v>4.3838999999999997</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
+        <v>6.5033000000000003</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.3E-3</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="11" t="s">
         <v>13</v>
@@ -19681,7 +19519,7 @@
         <v>0.32</v>
       </c>
       <c r="C8" s="8">
-        <v>3.9266000000000001</v>
+        <v>6.4447999999999999</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="3"/>
@@ -19693,7 +19531,7 @@
         <v>0.37</v>
       </c>
       <c r="C9" s="8">
-        <v>3.6959</v>
+        <v>6.3974000000000002</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
@@ -19705,7 +19543,7 @@
         <v>0.43</v>
       </c>
       <c r="C10" s="8">
-        <v>3.4697</v>
+        <v>6.3483000000000001</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
@@ -19718,7 +19556,7 @@
         <v>0.48</v>
       </c>
       <c r="C11" s="8">
-        <v>3.2985000000000002</v>
+        <v>6.3299000000000003</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="3"/>
@@ -19730,16 +19568,16 @@
         <v>0.53</v>
       </c>
       <c r="C12" s="8">
-        <v>3.1602999999999999</v>
+        <v>6.2938000000000001</v>
       </c>
       <c r="D12" s="8">
-        <v>7.1400000000000005E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1192</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F12" s="10">
-        <v>8.43E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -19748,7 +19586,7 @@
         <v>0.59</v>
       </c>
       <c r="C13" s="8">
-        <v>3.0687000000000002</v>
+        <v>6.2617000000000003</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
@@ -19760,7 +19598,7 @@
         <v>0.64</v>
       </c>
       <c r="C14" s="8">
-        <v>2.9903</v>
+        <v>6.2569999999999997</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
@@ -19772,7 +19610,7 @@
         <v>0.69</v>
       </c>
       <c r="C15" s="8">
-        <v>2.9287000000000001</v>
+        <v>6.2206000000000001</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
@@ -19784,7 +19622,7 @@
         <v>0.75</v>
       </c>
       <c r="C16" s="8">
-        <v>2.8708</v>
+        <v>6.2111999999999998</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3"/>
@@ -19796,11 +19634,17 @@
         <v>0.8</v>
       </c>
       <c r="C17" s="8">
-        <v>2.8323</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
+        <v>6.1917999999999997</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -19808,7 +19652,7 @@
         <v>0.85</v>
       </c>
       <c r="C18" s="8">
-        <v>2.7966000000000002</v>
+        <v>6.1458000000000004</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="3"/>
@@ -19820,7 +19664,7 @@
         <v>0.91</v>
       </c>
       <c r="C19" s="8">
-        <v>2.7627000000000002</v>
+        <v>6.1070000000000002</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="3"/>
@@ -19832,7 +19676,7 @@
         <v>0.96</v>
       </c>
       <c r="C20" s="8">
-        <v>2.7221000000000002</v>
+        <v>5.9507000000000003</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="3"/>
@@ -19844,7 +19688,7 @@
         <v>1.01</v>
       </c>
       <c r="C21" s="8">
-        <v>2.6871999999999998</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="3"/>
@@ -19856,16 +19700,16 @@
         <v>1.07</v>
       </c>
       <c r="C22" s="8">
-        <v>2.6004</v>
+        <v>5.8007999999999997</v>
       </c>
       <c r="D22" s="8">
-        <v>9.7600000000000006E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>0.15570000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F22" s="10">
-        <v>0.1135</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -19874,7 +19718,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C23" s="8">
-        <v>2.5912000000000002</v>
+        <v>5.7188999999999997</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="3"/>
@@ -19886,7 +19730,7 @@
         <v>1.17</v>
       </c>
       <c r="C24" s="8">
-        <v>2.5857000000000001</v>
+        <v>5.4748000000000001</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="3"/>
@@ -19898,7 +19742,7 @@
         <v>1.23</v>
       </c>
       <c r="C25" s="8">
-        <v>2.5714000000000001</v>
+        <v>5.2538999999999998</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3"/>
@@ -19910,7 +19754,7 @@
         <v>1.28</v>
       </c>
       <c r="C26" s="8">
-        <v>2.5421999999999998</v>
+        <v>5.1193</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -19922,11 +19766,17 @@
         <v>1.33</v>
       </c>
       <c r="C27" s="8">
-        <v>2.5308000000000002</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
+        <v>5.0026999999999999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3.09E-2</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -19934,7 +19784,7 @@
         <v>1.39</v>
       </c>
       <c r="C28" s="8">
-        <v>2.5230000000000001</v>
+        <v>4.9242999999999997</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
@@ -19946,7 +19796,7 @@
         <v>1.44</v>
       </c>
       <c r="C29" s="8">
-        <v>2.5063</v>
+        <v>4.8148999999999997</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
@@ -19958,7 +19808,7 @@
         <v>1.49</v>
       </c>
       <c r="C30" s="8">
-        <v>2.5017</v>
+        <v>4.7233000000000001</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
@@ -19970,7 +19820,7 @@
         <v>1.55</v>
       </c>
       <c r="C31" s="8">
-        <v>2.4834999999999998</v>
+        <v>4.6189</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="3"/>
@@ -19979,320 +19829,194 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2.4828999999999999</v>
-      </c>
-      <c r="D32" s="8">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0.11550000000000001</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2.4693999999999998</v>
-      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="3"/>
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2.4597000000000002</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="3"/>
       <c r="F34" s="10"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
-        <v>1.76</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2.4338000000000002</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="3"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2.4388000000000001</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="3"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <v>1.87</v>
-      </c>
-      <c r="C37" s="8">
-        <v>2.4236</v>
-      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
-        <v>1.92</v>
-      </c>
-      <c r="C38" s="8">
-        <v>2.4068999999999998</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2.4156</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="3"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2.3431000000000002</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="3"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
-        <v>2.08</v>
-      </c>
-      <c r="C41" s="8">
-        <v>2.2862</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="3"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
-        <v>2.13</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2.2843</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.1084</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.1694</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0.12520000000000001</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2.2866</v>
-      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2.2732999999999999</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
-        <v>2.29</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2.2894000000000001</v>
-      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="C46" s="8">
-        <v>2.2637999999999998</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="3"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2.2669000000000001</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="3"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C48" s="8">
-        <v>2.2595999999999998</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="3"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2.2530999999999999</v>
-      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="3"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
-        <v>2.56</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2.2643</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="3"/>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
-        <v>2.61</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2.2545999999999999</v>
-      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="3"/>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <v>2.67</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2.2416999999999998</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.1099</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.12670000000000001</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
-        <v>2.72</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2.2256999999999998</v>
-      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="3"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2.2317999999999998</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="3"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
-        <v>2.83</v>
-      </c>
-      <c r="C55" s="8">
-        <v>2.234</v>
-      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="3"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
-        <v>2.88</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2.2290000000000001</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="3"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
-        <v>2.93</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2.2252999999999998</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="3"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <v>2.99</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2.2136999999999998</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="3"/>
       <c r="F58" s="10"/>
@@ -20301,21 +20025,11 @@
       <c r="A59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="17">
-        <v>3</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="14">
-        <v>0.1032</v>
-      </c>
-      <c r="E59" s="14">
-        <v>0.1593</v>
-      </c>
-      <c r="F59" s="14">
-        <v>0.1186</v>
-      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Models/analysis.xlsx
+++ b/Models/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C66571-8778-4BD4-8DBE-D7F9791C2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D20983-327A-4D5E-93B3-5324C844AA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2655" windowWidth="21405" windowHeight="15435" activeTab="5" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>Language</t>
   </si>
@@ -1329,10 +1329,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>XLMR_DE!$C$3:$C$58</c:f>
+              <c:f>XLMR_DE!$C$3:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>7.4960000000000004</c:v>
                 </c:pt>
@@ -1409,16 +1409,103 @@
                   <c:v>5.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9242999999999997</c:v>
+                  <c:v>4.9387999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8148999999999997</c:v>
+                  <c:v>4.8712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7233000000000001</c:v>
+                  <c:v>4.7130999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.6189</c:v>
+                  <c:v>4.4627999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0829000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8043</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4398</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2273999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1387999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0819000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9977</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9426999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8224999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.7955999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6635</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6257000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6107999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5911</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5834000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5788000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5413999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5326</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5344000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4990999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5034000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,6 +1825,15 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-DD14-4166-90D8-66C2F2EAF7C8}"/>
@@ -1746,10 +1842,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$D$7,XLMR_DE!$D$12,XLMR_DE!$D$17,XLMR_DE!$D$22)</c:f>
+              <c:f>(XLMR_DE!$D$7,XLMR_DE!$D$12,XLMR_DE!$D$17,XLMR_DE!$D$22,XLMR_DE!$D$27,XLMR_DE!$D$32,XLMR_DE!$D$37,XLMR_DE!$D$42,XLMR_DE!$D$47,XLMR_DE!$D$52,XLMR_DE!$D$57)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4.1000000000000003E-3</c:v>
                 </c:pt>
@@ -1761,6 +1857,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7600000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,10 +1933,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$E$7,XLMR_DE!$E$12,XLMR_DE!$E$17,XLMR_DE!$E$22)</c:f>
+              <c:f>(XLMR_DE!$E$7,XLMR_DE!$E$12,XLMR_DE!$E$17,XLMR_DE!$E$22,XLMR_DE!$E$27,XLMR_DE!$E$32,XLMR_DE!$E$37,XLMR_DE!$E$42,XLMR_DE!$E$47,XLMR_DE!$E$52,XLMR_DE!$E$57)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5.3E-3</c:v>
                 </c:pt>
@@ -1831,6 +1948,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,10 +2024,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>(XLMR_DE!$F$7,XLMR_DE!$F$12,XLMR_DE!$F$17,XLMR_DE!$F$22)</c:f>
+              <c:f>(XLMR_DE!$F$7,XLMR_DE!$F$12,XLMR_DE!$F$17,XLMR_DE!$F$22,XLMR_DE!$F$27,XLMR_DE!$F$32,XLMR_DE!$F$37,XLMR_DE!$F$42,XLMR_DE!$F$47,XLMR_DE!$F$52,XLMR_DE!$F$57)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4.3E-3</c:v>
                 </c:pt>
@@ -1901,6 +2039,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8400000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19385,10 +19544,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD42CEBC-4DF1-4EAE-9662-1F6C023E63EA}">
-  <dimension ref="A2:I59"/>
+  <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19784,7 +19943,7 @@
         <v>1.39</v>
       </c>
       <c r="C28" s="8">
-        <v>4.9242999999999997</v>
+        <v>4.9387999999999996</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
@@ -19796,7 +19955,7 @@
         <v>1.44</v>
       </c>
       <c r="C29" s="8">
-        <v>4.8148999999999997</v>
+        <v>4.8712</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
@@ -19808,7 +19967,7 @@
         <v>1.49</v>
       </c>
       <c r="C30" s="8">
-        <v>4.7233000000000001</v>
+        <v>4.7130999999999998</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
@@ -19820,7 +19979,7 @@
         <v>1.55</v>
       </c>
       <c r="C31" s="8">
-        <v>4.6189</v>
+        <v>4.4627999999999997</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="3"/>
@@ -19829,207 +19988,383 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4.0829000000000004</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3.8043</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="3"/>
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3.6112000000000002</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="3"/>
       <c r="F34" s="10"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3.4398</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="3"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3.3264</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="3"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3.2273999999999998</v>
+      </c>
+      <c r="D37" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>7.7399999999999997E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3.1387999999999998</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3.0819000000000001</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="3"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2.9977</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="3"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2.9426999999999999</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="3"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2.9049</v>
+      </c>
+      <c r="D42" s="8">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.1081</v>
+      </c>
+      <c r="F42" s="10">
+        <v>8.5300000000000001E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2.8612000000000002</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2.8224999999999998</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="6">
+        <v>2.29</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2.7955999999999999</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2.7532000000000001</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="3"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2.6635</v>
+      </c>
+      <c r="D47" s="8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.1103</v>
+      </c>
+      <c r="F47" s="10">
+        <v>8.8099999999999998E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2.6429999999999998</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="3"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2.6257000000000001</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="3"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2.6107999999999998</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="3"/>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2.5911</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="3"/>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2.5834000000000001</v>
+      </c>
+      <c r="D52" s="8">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.1106</v>
+      </c>
+      <c r="F52" s="10">
+        <v>8.7900000000000006E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2.5788000000000002</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="3"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="6">
+        <v>2.77</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2.5613000000000001</v>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="3"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2.5413999999999999</v>
+      </c>
       <c r="D55" s="8"/>
       <c r="E55" s="3"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="6">
+        <v>2.89</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2.5326</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="3"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="6">
+        <v>2.95</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2.5344000000000002</v>
+      </c>
+      <c r="D57" s="8">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.1106</v>
+      </c>
+      <c r="F57" s="10">
+        <v>8.8400000000000006E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2.5373000000000001</v>
+      </c>
       <c r="D58" s="8"/>
       <c r="E58" s="3"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="B59" s="6">
+        <v>3.07</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2.4990999999999999</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2.5034000000000001</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="B61" s="17">
+        <v>3</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="14">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="F61" s="14">
+        <v>9.1899999999999996E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
